--- a/data_templates/Functional_Location_Hierarchy.xlsx
+++ b/data_templates/Functional_Location_Hierarchy.xlsx
@@ -14,30 +14,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>FuncLoc ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Parent Loc</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>H01-HOIST-001</t>
-  </si>
-  <si>
-    <t>H01-HOIST-001-001</t>
-  </si>
-  <si>
-    <t>Main Hoist Area</t>
-  </si>
-  <si>
-    <t>Motor Subsection</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="82">
+  <si>
+    <t>Functional Location</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Subarea</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>PLANT01-MOTOR-001</t>
+  </si>
+  <si>
+    <t>PLANT01-MILL-002</t>
+  </si>
+  <si>
+    <t>PLANT01-MOTOR-003</t>
+  </si>
+  <si>
+    <t>PLANT01-PUMP-004</t>
+  </si>
+  <si>
+    <t>PLANT01-UG_CONVEYOR-005</t>
+  </si>
+  <si>
+    <t>PLANT01-UG_CONVEYOR-006</t>
+  </si>
+  <si>
+    <t>PLANT01-FAN-007</t>
+  </si>
+  <si>
+    <t>PLANT01-MOTOR-008</t>
+  </si>
+  <si>
+    <t>PLANT01-UG_CONVEYOR-009</t>
+  </si>
+  <si>
+    <t>PLANT01-HOIST-010</t>
+  </si>
+  <si>
+    <t>PLANT01-MILL-011</t>
+  </si>
+  <si>
+    <t>PLANT01-PUMP-012</t>
+  </si>
+  <si>
+    <t>PLANT01-FAN-013</t>
+  </si>
+  <si>
+    <t>PLANT01-UG_CONVEYOR-014</t>
+  </si>
+  <si>
+    <t>PLANT01-UG_CONVEYOR-015</t>
+  </si>
+  <si>
+    <t>PLANT01-HOIST-016</t>
+  </si>
+  <si>
+    <t>PLANT01-MOTOR-017</t>
+  </si>
+  <si>
+    <t>PLANT01-MILL-018</t>
+  </si>
+  <si>
+    <t>PLANT01-MOTOR-019</t>
+  </si>
+  <si>
+    <t>PLANT01-MOTOR-020</t>
+  </si>
+  <si>
+    <t>PLANT01-PUMP-021</t>
+  </si>
+  <si>
+    <t>PLANT01-MILL-022</t>
+  </si>
+  <si>
+    <t>PLANT01-MILL-023</t>
+  </si>
+  <si>
+    <t>PLANT01-UG_CONVEYOR-024</t>
+  </si>
+  <si>
+    <t>PLANT01-PUMP-025</t>
+  </si>
+  <si>
+    <t>PLANT01-MILL-026</t>
+  </si>
+  <si>
+    <t>PLANT01-FAN-027</t>
+  </si>
+  <si>
+    <t>PLANT01-PUMP-028</t>
+  </si>
+  <si>
+    <t>PLANT01-FAN-029</t>
+  </si>
+  <si>
+    <t>PLANT01-HOIST-030</t>
+  </si>
+  <si>
+    <t>PLANT01-PUMP-031</t>
+  </si>
+  <si>
+    <t>PLANT01-FAN-032</t>
+  </si>
+  <si>
+    <t>PLANT01-HOIST-033</t>
+  </si>
+  <si>
+    <t>PLANT01-MILL-034</t>
+  </si>
+  <si>
+    <t>PLANT01-UG_CONVEYOR-035</t>
+  </si>
+  <si>
+    <t>PLANT01-MOTOR-036</t>
+  </si>
+  <si>
+    <t>PLANT01-HOIST-037</t>
+  </si>
+  <si>
+    <t>PLANT01-MILL-038</t>
+  </si>
+  <si>
+    <t>PLANT01-MILL-039</t>
+  </si>
+  <si>
+    <t>PLANT01-MILL-040</t>
+  </si>
+  <si>
+    <t>PLANT01-UG_CONVEYOR-041</t>
+  </si>
+  <si>
+    <t>PLANT01-PUMP-042</t>
+  </si>
+  <si>
+    <t>PLANT01-MOTOR-043</t>
+  </si>
+  <si>
+    <t>PLANT01-FAN-044</t>
+  </si>
+  <si>
+    <t>PLANT01-MOTOR-045</t>
+  </si>
+  <si>
+    <t>PLANT01-MOTOR-046</t>
+  </si>
+  <si>
+    <t>PLANT01-PUMP-047</t>
+  </si>
+  <si>
+    <t>PLANT01-HOIST-048</t>
+  </si>
+  <si>
+    <t>PLANT01-FAN-049</t>
+  </si>
+  <si>
+    <t>PLANT01-HOIST-050</t>
+  </si>
+  <si>
+    <t>MOTOR Area 2</t>
+  </si>
+  <si>
+    <t>MILL Area 1</t>
+  </si>
+  <si>
+    <t>MOTOR Area 3</t>
+  </si>
+  <si>
+    <t>PUMP Area 2</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Area 1</t>
+  </si>
+  <si>
+    <t>FAN Area 3</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Area 3</t>
+  </si>
+  <si>
+    <t>HOIST Area 2</t>
+  </si>
+  <si>
+    <t>MILL Area 2</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Area 2</t>
+  </si>
+  <si>
+    <t>HOIST Area 3</t>
+  </si>
+  <si>
+    <t>MOTOR Area 1</t>
+  </si>
+  <si>
+    <t>MILL Area 3</t>
+  </si>
+  <si>
+    <t>PUMP Area 3</t>
+  </si>
+  <si>
+    <t>PUMP Area 1</t>
+  </si>
+  <si>
+    <t>FAN Area 2</t>
+  </si>
+  <si>
+    <t>HOIST Area 1</t>
+  </si>
+  <si>
+    <t>Subarea 4</t>
+  </si>
+  <si>
+    <t>Subarea 3</t>
+  </si>
+  <si>
+    <t>Subarea 2</t>
+  </si>
+  <si>
+    <t>Subarea 5</t>
+  </si>
+  <si>
+    <t>Subarea 1</t>
+  </si>
+  <si>
+    <t>MOTOR</t>
+  </si>
+  <si>
+    <t>MILL</t>
+  </si>
+  <si>
+    <t>PUMP</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR</t>
+  </si>
+  <si>
+    <t>FAN</t>
+  </si>
+  <si>
+    <t>HOIST</t>
   </si>
 </sst>
 </file>
@@ -395,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,10 +642,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,13 +656,685 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data_templates/Functional_Location_Hierarchy.xlsx
+++ b/data_templates/Functional_Location_Hierarchy.xlsx
@@ -181,67 +181,67 @@
     <t>MOTOR Area 2</t>
   </si>
   <si>
+    <t>MILL Area 2</t>
+  </si>
+  <si>
+    <t>PUMP Area 1</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Area 2</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Area 1</t>
+  </si>
+  <si>
+    <t>FAN Area 1</t>
+  </si>
+  <si>
+    <t>HOIST Area 2</t>
+  </si>
+  <si>
     <t>MILL Area 1</t>
   </si>
   <si>
+    <t>PUMP Area 3</t>
+  </si>
+  <si>
+    <t>FAN Area 2</t>
+  </si>
+  <si>
+    <t>HOIST Area 1</t>
+  </si>
+  <si>
+    <t>MOTOR Area 1</t>
+  </si>
+  <si>
     <t>MOTOR Area 3</t>
   </si>
   <si>
+    <t>MILL Area 3</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Area 3</t>
+  </si>
+  <si>
     <t>PUMP Area 2</t>
   </si>
   <si>
-    <t>UG_CONVEYOR Area 1</t>
-  </si>
-  <si>
-    <t>FAN Area 3</t>
-  </si>
-  <si>
-    <t>UG_CONVEYOR Area 3</t>
-  </si>
-  <si>
-    <t>HOIST Area 2</t>
-  </si>
-  <si>
-    <t>MILL Area 2</t>
-  </si>
-  <si>
-    <t>UG_CONVEYOR Area 2</t>
-  </si>
-  <si>
     <t>HOIST Area 3</t>
   </si>
   <si>
-    <t>MOTOR Area 1</t>
-  </si>
-  <si>
-    <t>MILL Area 3</t>
-  </si>
-  <si>
-    <t>PUMP Area 3</t>
-  </si>
-  <si>
-    <t>PUMP Area 1</t>
-  </si>
-  <si>
-    <t>FAN Area 2</t>
-  </si>
-  <si>
-    <t>HOIST Area 1</t>
-  </si>
-  <si>
     <t>Subarea 4</t>
   </si>
   <si>
+    <t>Subarea 2</t>
+  </si>
+  <si>
     <t>Subarea 3</t>
   </si>
   <si>
-    <t>Subarea 2</t>
+    <t>Subarea 1</t>
   </si>
   <si>
     <t>Subarea 5</t>
-  </si>
-  <si>
-    <t>Subarea 1</t>
   </si>
   <si>
     <t>MOTOR</t>
@@ -670,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
@@ -684,10 +684,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
         <v>78</v>
@@ -698,10 +698,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>79</v>
@@ -715,7 +715,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
         <v>79</v>
@@ -729,7 +729,7 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
         <v>80</v>
@@ -740,10 +740,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>76</v>
@@ -754,10 +754,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
         <v>79</v>
@@ -768,7 +768,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
@@ -782,10 +782,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
         <v>77</v>
@@ -796,7 +796,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>72</v>
@@ -810,10 +810,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>80</v>
@@ -824,10 +824,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
         <v>79</v>
@@ -838,10 +838,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
         <v>79</v>
@@ -855,7 +855,7 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
         <v>81</v>
@@ -869,7 +869,7 @@
         <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
         <v>76</v>
@@ -880,10 +880,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
         <v>77</v>
@@ -894,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
         <v>76</v>
@@ -908,7 +908,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
         <v>75</v>
@@ -922,10 +922,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>78</v>
@@ -936,10 +936,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>77</v>
@@ -950,10 +950,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
         <v>77</v>
@@ -964,7 +964,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
@@ -978,7 +978,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
         <v>72</v>
@@ -992,10 +992,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
         <v>77</v>
@@ -1006,10 +1006,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
@@ -1020,7 +1020,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
@@ -1034,10 +1034,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
@@ -1051,7 +1051,7 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
@@ -1062,10 +1062,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
         <v>78</v>
@@ -1076,10 +1076,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
@@ -1093,7 +1093,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
@@ -1104,10 +1104,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
         <v>77</v>
@@ -1118,10 +1118,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
         <v>79</v>
@@ -1132,10 +1132,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
         <v>76</v>
@@ -1146,10 +1146,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
         <v>81</v>
@@ -1160,10 +1160,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>77</v>
@@ -1174,10 +1174,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
         <v>77</v>
@@ -1188,10 +1188,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
         <v>77</v>
@@ -1202,10 +1202,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
         <v>79</v>
@@ -1216,10 +1216,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
         <v>78</v>
@@ -1230,10 +1230,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
         <v>76</v>
@@ -1244,7 +1244,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
         <v>75</v>
@@ -1258,7 +1258,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
         <v>75</v>
@@ -1272,10 +1272,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
         <v>76</v>
@@ -1286,10 +1286,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
         <v>78</v>
@@ -1300,10 +1300,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
         <v>81</v>
@@ -1314,10 +1314,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
         <v>80</v>
@@ -1328,10 +1328,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
         <v>81</v>
